--- a/Archivos/Numeros de matrimonios.xlsx
+++ b/Archivos/Numeros de matrimonios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bak up UES_al 12-10-16\UNIDAD EST. SALUD\INDICADORES DE SALUD\Indicadores 2020\1.2 Indicadores demográficos\1.2.6 Número de matrimonios por departamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craxt\OneDrive\Documentos\Github\Proyecto_Mineria\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E7518DA-A43E-4D82-8DC8-586CB7A52341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9554F847-9B1C-4ED2-9D02-FA77C91B8F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -624,14 +624,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="13.42578125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="24" width="13.44140625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="16.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:25" s="13" customFormat="1" ht="16.5">
+    <row r="3" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2020</v>
       </c>
@@ -814,7 +814,7 @@
       </c>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2019</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2018</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2017</v>
       </c>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2016</v>
       </c>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2015</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2014</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2013</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:25" ht="16.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2011</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16.5">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>2010</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2009</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" ht="16.5">
+    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2008</v>
       </c>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" spans="1:24" ht="16.5">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2007</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16.5">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2006</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16.5">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2005</v>
       </c>
@@ -1952,14 +1952,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33">
+    <row r="2" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>38</v>
       </c>
